--- a/DBA组/4.8SQL需求文档/4.8SQL表格/Course表.xlsx
+++ b/DBA组/4.8SQL需求文档/4.8SQL表格/Course表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14970" windowHeight="7390"/>
+    <workbookView windowWidth="14150" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Course表</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>教师id</t>
+  </si>
+  <si>
+    <t>是(t_id)</t>
   </si>
   <si>
     <t>c_time</t>
@@ -104,83 +107,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,16 +122,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,7 +198,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,23 +206,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,24 +266,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -299,6 +338,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -311,7 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,121 +416,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,36 +530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -581,15 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -605,13 +569,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +601,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -632,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,7 +1127,7 @@
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <selection activeCell="H8" sqref="H8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1263,7 +1266,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="3"/>
@@ -1281,10 +1284,10 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>16</v>
@@ -1313,10 +1316,10 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>16</v>
